--- a/80000-100000.xlsx
+++ b/80000-100000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -80,6 +86,27 @@
   </si>
   <si>
     <t>BPO Visma Løn og HR</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Virksomheden lukker</t>
+  </si>
+  <si>
+    <t>Ikke flere medarbejdere i virksomheden</t>
+  </si>
+  <si>
+    <t>Insourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>Intect</t>
+  </si>
+  <si>
+    <t>Zenegy</t>
   </si>
   <si>
     <t>80000-100000</t>
@@ -444,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,10 +496,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -481,18 +514,24 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>44348</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -501,18 +540,21 @@
         <v>98778.67</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>44376</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -521,18 +563,21 @@
         <v>96164</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>44438</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -541,18 +586,21 @@
         <v>97596.27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>44515</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2022</v>
@@ -561,18 +609,24 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>44592</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -581,18 +635,21 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>44649</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -601,18 +658,21 @@
         <v>80534</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>44681</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -621,18 +681,21 @@
         <v>85765.3</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>44736</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -641,18 +704,24 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>44916</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -661,18 +730,21 @@
         <v>99798</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>44979</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -681,13 +753,16 @@
         <v>80135</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>45076</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/80000-100000.xlsx
+++ b/80000-100000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -73,6 +76,15 @@
     <t>19029484</t>
   </si>
   <si>
+    <t>38618873</t>
+  </si>
+  <si>
+    <t>23410915</t>
+  </si>
+  <si>
+    <t>83090413</t>
+  </si>
+  <si>
     <t>Visma Løn</t>
   </si>
   <si>
@@ -88,6 +100,9 @@
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
+    <t>BPO, Løn og HR</t>
+  </si>
+  <si>
     <t>Ikke oplyst</t>
   </si>
   <si>
@@ -100,13 +115,37 @@
     <t>Ikke flere medarbejdere i virksomheden</t>
   </si>
   <si>
-    <t>Insourcing af lønnen (anden leverandør)</t>
-  </si>
-  <si>
     <t>Intect</t>
   </si>
   <si>
     <t>Zenegy</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>80000-100000</t>
@@ -471,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,10 +541,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -514,24 +556,27 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>44348</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -540,21 +585,24 @@
         <v>98778.67</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>44376</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -563,21 +611,24 @@
         <v>96164</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>44438</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -586,21 +637,24 @@
         <v>97596.27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>44515</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2022</v>
@@ -609,24 +663,27 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>44592</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -635,21 +692,24 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>44649</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -658,21 +718,24 @@
         <v>80534</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>44681</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -681,21 +744,24 @@
         <v>85765.3</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>44736</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -704,24 +770,27 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>44916</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -730,21 +799,21 @@
         <v>99798</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2">
         <v>44979</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
       <c r="H11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -753,16 +822,85 @@
         <v>80135</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>45076</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>98144</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
-        <v>31</v>
+      <c r="E13" s="2">
+        <v>45106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>87298.83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <v>95742</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45169</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/80000-100000.xlsx
+++ b/80000-100000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>CVR</t>
   </si>
@@ -85,6 +85,12 @@
     <t>83090413</t>
   </si>
   <si>
+    <t>80493215</t>
+  </si>
+  <si>
+    <t>12070942</t>
+  </si>
+  <si>
     <t>Visma Løn</t>
   </si>
   <si>
@@ -121,6 +127,12 @@
     <t>Zenegy</t>
   </si>
   <si>
+    <t>Lessor</t>
+  </si>
+  <si>
+    <t>Azets</t>
+  </si>
+  <si>
     <t>2021Q2</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>80000-100000</t>
@@ -510,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,22 +571,22 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>44348</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -585,19 +600,19 @@
         <v>98778.67</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>44376</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -611,19 +626,19 @@
         <v>96164</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>44438</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -637,19 +652,19 @@
         <v>97596.27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>44515</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -663,22 +678,22 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>44592</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -692,19 +707,19 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>44649</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -718,19 +733,19 @@
         <v>80534</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>44681</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -744,19 +759,19 @@
         <v>85765.3</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2">
         <v>44736</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -770,22 +785,22 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>44916</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -799,16 +814,16 @@
         <v>99798</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>44979</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -822,16 +837,16 @@
         <v>80135</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>45076</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -845,16 +860,16 @@
         <v>98144</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>45106</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -868,16 +883,16 @@
         <v>87298.83</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2">
         <v>45145</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -891,16 +906,68 @@
         <v>95742</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2">
         <v>45169</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>83103.05</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45198</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17">
+        <v>85832.52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/80000-100000.xlsx
+++ b/80000-100000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>CVR</t>
   </si>
@@ -91,6 +91,9 @@
     <t>12070942</t>
   </si>
   <si>
+    <t>42443611</t>
+  </si>
+  <si>
     <t>Visma Løn</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>80000-100000</t>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,22 +577,22 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
         <v>44348</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -600,19 +606,19 @@
         <v>98778.67</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
         <v>44376</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -626,19 +632,19 @@
         <v>96164</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>44438</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -652,19 +658,19 @@
         <v>97596.27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>44515</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -678,22 +684,22 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>44592</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -707,19 +713,19 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>44649</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -733,19 +739,19 @@
         <v>80534</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>44681</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -759,19 +765,19 @@
         <v>85765.3</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>44736</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -785,22 +791,22 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>44916</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -814,16 +820,16 @@
         <v>99798</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>44979</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -837,16 +843,16 @@
         <v>80135</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
         <v>45076</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -860,16 +866,16 @@
         <v>98144</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>45106</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -883,16 +889,16 @@
         <v>87298.83</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>45145</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -906,16 +912,16 @@
         <v>95742</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
         <v>45169</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -929,19 +935,19 @@
         <v>83103.05</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
         <v>45198</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -955,19 +961,42 @@
         <v>85832.52</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>45205</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18">
+        <v>83544</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45484</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/80000-100000.xlsx
+++ b/80000-100000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>CVR</t>
   </si>
@@ -52,6 +52,9 @@
     <t>15049847</t>
   </si>
   <si>
+    <t>-2147483648</t>
+  </si>
+  <si>
     <t>16221341</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>12070942</t>
   </si>
   <si>
+    <t>1298165244</t>
+  </si>
+  <si>
     <t>42443611</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>Løn og HR</t>
+  </si>
+  <si>
+    <t>SKL SE</t>
   </si>
   <si>
     <t>BPO Løn og HR</t>
@@ -531,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,22 +586,22 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>44348</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -606,19 +615,19 @@
         <v>98778.67</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2">
         <v>44376</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -632,19 +641,19 @@
         <v>96164</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2">
         <v>44438</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,22 +664,22 @@
         <v>2021</v>
       </c>
       <c r="C5">
-        <v>97596.27</v>
+        <v>97073.67</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
-        <v>44515</v>
+        <v>44504</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -678,28 +687,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C6">
-        <v>86395.57000000001</v>
+        <v>97596.27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
-        <v>44592</v>
+        <v>44515</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -710,22 +716,25 @@
         <v>2022</v>
       </c>
       <c r="C7">
-        <v>95656.64999999999</v>
+        <v>86395.57000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
-        <v>44649</v>
+        <v>44592</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -736,22 +745,22 @@
         <v>2022</v>
       </c>
       <c r="C8">
-        <v>80534</v>
+        <v>95656.64999999999</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2">
-        <v>44681</v>
+        <v>44649</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -762,22 +771,22 @@
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>85765.3</v>
+        <v>80534</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
-        <v>44736</v>
+        <v>44681</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -788,25 +797,22 @@
         <v>2022</v>
       </c>
       <c r="C10">
-        <v>90042.39999999999</v>
+        <v>85765.3</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
-        <v>44916</v>
+        <v>44736</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -814,22 +820,28 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C11">
-        <v>99798</v>
+        <v>90042.39999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>44979</v>
+        <v>44916</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -840,19 +852,19 @@
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>80135</v>
+        <v>99798</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
-        <v>45076</v>
+        <v>44979</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -863,19 +875,19 @@
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>98144</v>
+        <v>80135</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>45106</v>
+        <v>45076</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -886,19 +898,19 @@
         <v>2023</v>
       </c>
       <c r="C14">
-        <v>87298.83</v>
+        <v>98144</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2">
-        <v>45145</v>
+        <v>45106</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -909,19 +921,19 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <v>95742</v>
+        <v>87298.83</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2">
-        <v>45169</v>
+        <v>45145</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -932,22 +944,19 @@
         <v>2023</v>
       </c>
       <c r="C16">
-        <v>83103.05</v>
+        <v>95742</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
-        <v>45198</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
+        <v>45169</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -958,22 +967,22 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>85832.52</v>
+        <v>83103.05</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
-        <v>45205</v>
+        <v>45198</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -981,22 +990,71 @@
         <v>25</v>
       </c>
       <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>85832.52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <v>80850</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45281</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
         <v>2024</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>83544</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2">
         <v>45484</v>
       </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>51</v>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
